--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value451.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value451.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.233910932842423</v>
+        <v>0.9170665144920349</v>
       </c>
       <c r="B1">
-        <v>1.390322131899555</v>
+        <v>1.344925165176392</v>
       </c>
       <c r="C1">
-        <v>1.70422984644284</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.226169603062935</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>3.337975456286858</v>
+        <v>1.694877624511719</v>
       </c>
     </row>
   </sheetData>
